--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9800"/>
+    <workbookView windowWidth="25600" windowHeight="9800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="RegScreen" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>UserID</t>
   </si>
@@ -59,6 +60,63 @@
   </si>
   <si>
     <t>validatingPasswordVisibilityToggle</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Email Address</t>
+  </si>
+  <si>
+    <t>Phone Number</t>
+  </si>
+  <si>
+    <t>Subscribe to Newsletter</t>
+  </si>
+  <si>
+    <t>Validate All Fields Displayed</t>
+  </si>
+  <si>
+    <t>Manoj K M</t>
+  </si>
+  <si>
+    <t>kmmanu831456@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T   </t>
+  </si>
+  <si>
+    <t>Valid Data Entry</t>
+  </si>
+  <si>
+    <t>Missing Full Name</t>
+  </si>
+  <si>
+    <t>@##$$!!@@#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wrong Full Name </t>
+  </si>
+  <si>
+    <t>kmmanu831456@</t>
+  </si>
+  <si>
+    <t>Invalid Email Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Without Email </t>
+  </si>
+  <si>
+    <t>Missing Phone Number</t>
+  </si>
+  <si>
+    <t>Less than 10 digit Phone Number</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Unsubscribe from Newsletter</t>
   </si>
 </sst>
 </file>
@@ -66,17 +124,41 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,14 +177,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -110,17 +184,84 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,81 +289,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -233,187 +299,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,21 +533,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -498,9 +549,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,11 +584,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,160 +610,172 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="48" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1023,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1034,76 +1112,260 @@
     <col min="3" max="3" width="34.0625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="3"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="helloWorld@gmail.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="17.4453125" customWidth="1"/>
+    <col min="2" max="2" width="20.046875" customWidth="1"/>
+    <col min="3" max="3" width="23.828125" customWidth="1"/>
+    <col min="4" max="4" width="18.1015625" customWidth="1"/>
+    <col min="5" max="5" width="23.828125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" ht="42" spans="1:5">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="28" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" ht="28" spans="1:5">
+      <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" ht="28" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" ht="28" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="2">
+        <v>123455</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" ht="28" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6362765981</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" display="kmmanu831456@gmail.com"/>
+    <hyperlink ref="B5" r:id="rId1" display="kmmanu831456@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
